--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA818226-5753-F54E-B4FF-45EADB8F6B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194686D2-5DE5-8F41-AD1D-412C2D571967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="2000" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="15300" yWindow="3460" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>Thanksgiving Break</t>
+  </si>
+  <si>
+    <t>6:00 pm</t>
+  </si>
+  <si>
+    <t>7:00 pm</t>
   </si>
 </sst>
 </file>
@@ -592,7 +598,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -634,7 +640,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44788</v>
+        <v>44798</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="D2" t="s">
         <v>45</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194686D2-5DE5-8F41-AD1D-412C2D571967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA21343-8534-704C-B45C-C959E78B1282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15300" yWindow="3460" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="6180" yWindow="8340" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>7:00 pm</t>
+  </si>
+  <si>
+    <t>00-Intro_to_Course</t>
+  </si>
+  <si>
+    <t>f03Bbns0m3g</t>
   </si>
 </sst>
 </file>
@@ -598,7 +604,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -653,6 +659,12 @@
       </c>
       <c r="E2" t="s">
         <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA21343-8534-704C-B45C-C959E78B1282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A47995-7A16-F74F-94EB-E9BEB19BED53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6180" yWindow="8340" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>f03Bbns0m3g</t>
+  </si>
+  <si>
+    <t>01-Intro_to_Data</t>
+  </si>
+  <si>
+    <t>wGifRBRsv_4</t>
   </si>
 </sst>
 </file>
@@ -604,7 +610,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,6 +688,12 @@
       </c>
       <c r="E3" t="s">
         <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A47995-7A16-F74F-94EB-E9BEB19BED53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E9144B-8BA1-F646-AC31-887C9D454EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6180" yWindow="8340" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>wGifRBRsv_4</t>
+  </si>
+  <si>
+    <t>Hu0-cNTcnuQ</t>
+  </si>
+  <si>
+    <t>02-Summarizing_Data</t>
   </si>
 </sst>
 </file>
@@ -610,7 +616,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -711,6 +717,12 @@
       </c>
       <c r="E4" t="s">
         <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E9144B-8BA1-F646-AC31-887C9D454EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6615FF6-E51D-964D-A594-B22971968D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6180" yWindow="8340" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>02-Summarizing_Data</t>
+  </si>
+  <si>
+    <t>mZwF_TLieQE</t>
   </si>
 </sst>
 </file>
@@ -741,6 +744,12 @@
       <c r="E5" t="s">
         <v>29</v>
       </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6615FF6-E51D-964D-A594-B22971968D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6ABBFA6-AB8E-A04E-9AFF-91AAED9CA467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6180" yWindow="8340" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -237,6 +237,56 @@
   </si>
   <si>
     <t>mZwF_TLieQE</t>
+  </si>
+  <si>
+    <t>library(magrittr)
+library(dplyr)
+data(mtcars)
+str(mtcars)
+mtcars$gear %&gt;%
+	table() %&gt;%
+	prop.table()
+`%&gt;%`(mtcars$gear, table)
+`+`
+2 + 3
+`+`(2, 3)
+`+` &lt;- function(e1, e2) {
+	print('Happy April Fools!')
+}
+2 + 3
+a &lt;- 2 + 4
+a = 2 + 4
+a
+tab &lt;- mtcars$gear %&gt;%
+	table() %&gt;%
+	prop.table()
+tab
+mtcars$gear %&gt;%
+	table() %&gt;%
+	prop.table() -&gt; 
+	tab
+tab
+letters %in% c('a','e','i','o','u')
+letters %in% c('a','e','i','o','u') %&gt;% which()
+mtcars %&gt;%
+	filter(mpg &gt; 20 &amp; cyl == 6) %&gt;%
+	select(mpg, wt)
+filter(mtcars, mpg &gt; 20 &amp; cyl == 6) %&gt;% select(mpg, wt)
+head(mtcars, n = 3)
+tail(mtcars)
+mtcars %&gt;% head(n = 3) %&gt;% rename(miles_per_gallon = mpg)
+mtcars2 &lt;- mtcars %&gt;% rename(miles_per_gallon = mpg)
+head(mtcars2)
+mtcars2[1, 'miles_per_gallon'] &lt;- 0
+mtcars2$cyl / mtcars2$miles_per_gallon
+mtcars2[1, 'miles_per_gallon'] &lt;- NA
+mean(mtcars2$miles_per_gallon)
+mean(mtcars2$miles_per_gallon, na.rm = TRUE)
+4 / 2
+4 / NA
+NA / 4
+4 / 0 # Why is this Inf
+0 / 4</t>
   </si>
 </sst>
 </file>
@@ -284,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -302,6 +352,9 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,7 +672,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,7 +781,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44818</v>
       </c>
@@ -747,8 +800,8 @@
       <c r="F5" t="s">
         <v>66</v>
       </c>
-      <c r="G5" t="s">
-        <v>65</v>
+      <c r="H5" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6ABBFA6-AB8E-A04E-9AFF-91AAED9CA467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0EF78A-A23C-B44F-BA47-175600DAEFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6180" yWindow="8340" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -239,7 +239,8 @@
     <t>mZwF_TLieQE</t>
   </si>
   <si>
-    <t>library(magrittr)
+    <t>```
+library(magrittr)
 library(dplyr)
 data(mtcars)
 str(mtcars)
@@ -286,7 +287,8 @@
 4 / NA
 NA / 4
 4 / 0 # Why is this Inf
-0 / 4</t>
+0 / 4
+```</t>
   </si>
 </sst>
 </file>
@@ -781,7 +783,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44818</v>
       </c>
@@ -799,6 +801,9 @@
       </c>
       <c r="F5" t="s">
         <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>65</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>67</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0EF78A-A23C-B44F-BA47-175600DAEFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE00F2D-C8DE-9C47-8C09-56E97A72188F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6180" yWindow="8340" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -231,9 +231,6 @@
   </si>
   <si>
     <t>Hu0-cNTcnuQ</t>
-  </si>
-  <si>
-    <t>02-Summarizing_Data</t>
   </si>
   <si>
     <t>mZwF_TLieQE</t>
@@ -289,6 +286,12 @@
 4 / 0 # Why is this Inf
 0 / 4
 ```</t>
+  </si>
+  <si>
+    <t>02-Summarizing_Data1</t>
+  </si>
+  <si>
+    <t>02-Summarizing_Data2</t>
   </si>
 </sst>
 </file>
@@ -674,7 +677,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -780,7 +783,7 @@
         <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -800,13 +803,13 @@
         <v>29</v>
       </c>
       <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="G5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE00F2D-C8DE-9C47-8C09-56E97A72188F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037C0F49-CCF4-9E44-9DD1-4B479ACEE4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="8340" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="20400" yWindow="11140" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -292,6 +292,12 @@
   </si>
   <si>
     <t>02-Summarizing_Data2</t>
+  </si>
+  <si>
+    <t>03-Probability</t>
+  </si>
+  <si>
+    <t>k6bRRGC7z98</t>
   </si>
 </sst>
 </file>
@@ -677,7 +683,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -827,6 +833,12 @@
       </c>
       <c r="E6" t="s">
         <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
       </c>
       <c r="H6" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037C0F49-CCF4-9E44-9DD1-4B479ACEE4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE26782-99AC-2F4C-9993-88713DCDD657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20400" yWindow="11140" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -298,6 +298,12 @@
   </si>
   <si>
     <t>k6bRRGC7z98</t>
+  </si>
+  <si>
+    <t>04-Distributions</t>
+  </si>
+  <si>
+    <t>YLn1BIbmNSM</t>
   </si>
 </sst>
 </file>
@@ -858,6 +864,12 @@
       <c r="E7" t="s">
         <v>29</v>
       </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>71</v>
+      </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE26782-99AC-2F4C-9993-88713DCDD657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8707A16E-79BE-1343-B84D-3445EEB1F5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20400" yWindow="11140" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="2640" yWindow="8920" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -305,6 +305,16 @@
   <si>
     <t>YLn1BIbmNSM</t>
   </si>
+  <si>
+    <t>Here is the Calculus video I was referring to: https://www.youtube.com/watch?v=WUvTyaaNkzM&amp;t=34s
+I do also highly recommend StatQuest for other topics as well: https://www.youtube.com/c/joshstarmer/featured</t>
+  </si>
+  <si>
+    <t>05-Foundation_for_Inference</t>
+  </si>
+  <si>
+    <t>tasHzSopGf8</t>
+  </si>
 </sst>
 </file>
 
@@ -351,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -370,6 +380,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -689,7 +702,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -870,9 +883,8 @@
       <c r="G7" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44839</v>
       </c>
@@ -888,7 +900,15 @@
       <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8707A16E-79BE-1343-B84D-3445EEB1F5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695A1E6D-921D-8E49-ADCE-7DE5701BC4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="8920" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="78">
   <si>
     <t>Date</t>
   </si>
@@ -314,6 +314,12 @@
   </si>
   <si>
     <t>tasHzSopGf8</t>
+  </si>
+  <si>
+    <t>06-Inference_for_Categorical_Data</t>
+  </si>
+  <si>
+    <t>Yu7bPWOIJdA</t>
   </si>
 </sst>
 </file>
@@ -702,7 +708,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -925,6 +931,12 @@
       </c>
       <c r="E9" t="s">
         <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s">
+        <v>76</v>
       </c>
       <c r="H9" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695A1E6D-921D-8E49-ADCE-7DE5701BC4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D3B6DA-3A40-C34B-82EB-E9782476D8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="8920" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="80">
   <si>
     <t>Date</t>
   </si>
@@ -320,6 +320,12 @@
   </si>
   <si>
     <t>Yu7bPWOIJdA</t>
+  </si>
+  <si>
+    <t>jSjDXr7pEPk</t>
+  </si>
+  <si>
+    <t>07-Inference_for_Numerical_Data</t>
   </si>
 </sst>
 </file>
@@ -708,7 +714,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -955,6 +961,12 @@
       </c>
       <c r="E10" t="s">
         <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" t="s">
+        <v>79</v>
       </c>
       <c r="H10" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D3B6DA-3A40-C34B-82EB-E9782476D8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC878399-1784-0A4A-A6E6-6F7785889CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="8920" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="82">
   <si>
     <t>Date</t>
   </si>
@@ -326,6 +326,12 @@
   </si>
   <si>
     <t>07-Inference_for_Numerical_Data</t>
+  </si>
+  <si>
+    <t>yCK_XxEn1Ew</t>
+  </si>
+  <si>
+    <t>08-Linear_Regression</t>
   </si>
 </sst>
 </file>
@@ -714,7 +720,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -985,6 +991,12 @@
       </c>
       <c r="E11" t="s">
         <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" t="s">
+        <v>81</v>
       </c>
       <c r="H11" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC878399-1784-0A4A-A6E6-6F7785889CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C78CD7-9ECA-7746-804A-8A5366DCF790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="8920" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
   <si>
     <t>Date</t>
   </si>
@@ -153,12 +153,6 @@
   </si>
   <si>
     <t>Inference for Numerical Data</t>
-  </si>
-  <si>
-    <t>Linear Regression</t>
-  </si>
-  <si>
-    <t>Linear Regression (cont.)</t>
   </si>
   <si>
     <t>Multiple Regression</t>
@@ -332,6 +326,18 @@
   </si>
   <si>
     <t>08-Linear_Regression</t>
+  </si>
+  <si>
+    <t>m5PRrbmtcio</t>
+  </si>
+  <si>
+    <t>Linear Regression Part 1</t>
+  </si>
+  <si>
+    <t>Linear Regression Part 2</t>
+  </si>
+  <si>
+    <t>08-Linear_Regression2</t>
   </si>
 </sst>
 </file>
@@ -720,7 +726,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -751,10 +757,10 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -765,22 +771,22 @@
         <v>44798</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
         <v>58</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -800,10 +806,10 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -817,16 +823,16 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -840,19 +846,19 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
         <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -872,10 +878,10 @@
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H6" s="6"/>
     </row>
@@ -896,10 +902,10 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -913,19 +919,19 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -945,10 +951,10 @@
         <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -969,10 +975,10 @@
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H10" s="6"/>
     </row>
@@ -987,16 +993,16 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H11" s="6"/>
     </row>
@@ -1011,10 +1017,16 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" t="s">
+        <v>83</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -1029,7 +1041,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
@@ -1047,7 +1059,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
@@ -1059,7 +1071,7 @@
         <v>44888</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -1074,7 +1086,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
@@ -1092,7 +1104,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
         <v>29</v>
@@ -1141,7 +1153,7 @@
         <v>44808</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -1183,7 +1195,7 @@
         <v>44836</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -1211,10 +1223,10 @@
         <v>44850</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1253,7 +1265,7 @@
         <v>44878</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
@@ -1267,7 +1279,7 @@
         <v>44892</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C78CD7-9ECA-7746-804A-8A5366DCF790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E82EF8-14BC-F544-986F-A128FAFD90BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="8920" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>Multiple Regression</t>
-  </si>
-  <si>
-    <t>Logistic Regression</t>
   </si>
   <si>
     <t>Bayesian Analysis</t>
@@ -338,6 +335,15 @@
   </si>
   <si>
     <t>08-Linear_Regression2</t>
+  </si>
+  <si>
+    <t>Logistc Regression</t>
+  </si>
+  <si>
+    <t>5Gwi3zRS-uY</t>
+  </si>
+  <si>
+    <t>09-Logistic_Regression</t>
   </si>
 </sst>
 </file>
@@ -757,10 +763,10 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
         <v>49</v>
-      </c>
-      <c r="G1" t="s">
-        <v>50</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -771,22 +777,22 @@
         <v>44798</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
         <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -806,10 +812,10 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -823,16 +829,16 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -846,19 +852,19 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
         <v>29</v>
       </c>
       <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -878,10 +884,10 @@
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" s="6"/>
     </row>
@@ -902,10 +908,10 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -919,19 +925,19 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -951,10 +957,10 @@
         <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -975,10 +981,10 @@
         <v>29</v>
       </c>
       <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
         <v>76</v>
-      </c>
-      <c r="G10" t="s">
-        <v>77</v>
       </c>
       <c r="H10" s="6"/>
     </row>
@@ -993,16 +999,16 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
       </c>
       <c r="F11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" t="s">
         <v>78</v>
-      </c>
-      <c r="G11" t="s">
-        <v>79</v>
       </c>
       <c r="H11" s="6"/>
     </row>
@@ -1017,16 +1023,16 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" t="s">
         <v>82</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" t="s">
-        <v>83</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -1041,10 +1047,16 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" t="s">
+        <v>85</v>
       </c>
       <c r="H13" s="6"/>
     </row>
@@ -1059,7 +1071,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
@@ -1071,7 +1083,7 @@
         <v>44888</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -1086,7 +1098,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
@@ -1104,7 +1116,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
         <v>29</v>
@@ -1153,7 +1165,7 @@
         <v>44808</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -1195,7 +1207,7 @@
         <v>44836</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -1223,10 +1235,10 @@
         <v>44850</v>
       </c>
       <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
         <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1265,7 +1277,7 @@
         <v>44878</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
@@ -1279,7 +1291,7 @@
         <v>44892</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E82EF8-14BC-F544-986F-A128FAFD90BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E180618E-2277-6D44-9E7D-7C2B07E8EE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="8920" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -337,13 +337,13 @@
     <t>08-Linear_Regression2</t>
   </si>
   <si>
-    <t>Logistc Regression</t>
-  </si>
-  <si>
     <t>5Gwi3zRS-uY</t>
   </si>
   <si>
     <t>09-Logistic_Regression</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1047,16 +1047,16 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
         <v>83</v>
       </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>84</v>
-      </c>
-      <c r="G13" t="s">
-        <v>85</v>
       </c>
       <c r="H13" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E180618E-2277-6D44-9E7D-7C2B07E8EE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA30357-5467-E342-9F2B-85EBC6208904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="8920" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="1440" yWindow="2140" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -344,6 +344,12 @@
   </si>
   <si>
     <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>09-Multiple_Regression</t>
+  </si>
+  <si>
+    <t>EW8Isw6YaOM</t>
   </si>
 </sst>
 </file>
@@ -732,7 +738,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1075,6 +1081,12 @@
       </c>
       <c r="E14" t="s">
         <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" t="s">
+        <v>86</v>
       </c>
       <c r="H14" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA30357-5467-E342-9F2B-85EBC6208904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB1E044-78A4-D04D-97FF-A06AF5FB870F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="2140" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="12100" yWindow="8680" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="90">
   <si>
     <t>Date</t>
   </si>
@@ -350,6 +350,12 @@
   </si>
   <si>
     <t>EW8Isw6YaOM</t>
+  </si>
+  <si>
+    <t>10-Bayesian_Analysis</t>
+  </si>
+  <si>
+    <t>7za4vy6pqjw</t>
   </si>
 </sst>
 </file>
@@ -738,7 +744,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1115,6 +1121,12 @@
       <c r="E16" t="s">
         <v>29</v>
       </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" t="s">
+        <v>88</v>
+      </c>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1145,7 +1157,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1336,7 +1348,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>44902</v>
+        <v>44899</v>
       </c>
       <c r="B14" s="2">
         <v>44906</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB1E044-78A4-D04D-97FF-A06AF5FB870F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8A8DE9-9022-1F44-91D6-C46AE6BF4C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12100" yWindow="8680" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="20700" yWindow="9240" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="93">
   <si>
     <t>Date</t>
   </si>
@@ -356,6 +356,17 @@
   </si>
   <si>
     <t>7za4vy6pqjw</t>
+  </si>
+  <si>
+    <t>11-Final_Meetup</t>
+  </si>
+  <si>
+    <t>Quarto is the next version of Rmarkdown: https://quarto.org
+Link to other R related talks: https://albanyrusers.org
+ShinyQDA Repo: https://github.com/jbryer/ShinyQDA</t>
+  </si>
+  <si>
+    <t>3LvlFyKRuZc</t>
   </si>
 </sst>
 </file>
@@ -744,7 +755,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1129,7 +1140,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44902</v>
       </c>
@@ -1144,6 +1155,15 @@
       </c>
       <c r="E17" t="s">
         <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
